--- a/ILRG_ORAM_F_registo_assocs/ILRG_ORAM_F_registo_assocs-media/ILRG_ORAM_F_registo_assocs.xlsx
+++ b/ILRG_ORAM_F_registo_assocs/ILRG_ORAM_F_registo_assocs-media/ILRG_ORAM_F_registo_assocs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\projects\ILRG\oram\ODK Forms\ILRG_ORAM_odk_forms\ILRG_ORAM_F_registo_assocs\ILRG_ORAM_F_registo_assocs-media\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEA052D9-AB4E-4F2B-BAAF-0056CE24EC77}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32D7E12B-66A0-47E3-81C7-AA64D8A9E2A8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4574,10 +4574,10 @@
   <dimension ref="A1:P28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C31" sqref="C31"/>
+      <selection pane="bottomRight" activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4915,7 +4915,7 @@
       <c r="B22" s="20" t="s">
         <v>1103</v>
       </c>
-      <c r="C22" s="53" t="s">
+      <c r="C22" s="2" t="s">
         <v>1096</v>
       </c>
       <c r="E22" s="53" t="s">

--- a/ILRG_ORAM_F_registo_assocs/ILRG_ORAM_F_registo_assocs-media/ILRG_ORAM_F_registo_assocs.xlsx
+++ b/ILRG_ORAM_F_registo_assocs/ILRG_ORAM_F_registo_assocs-media/ILRG_ORAM_F_registo_assocs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\projects\ILRG\oram\ODK Forms\ILRG_ORAM_odk_forms\ILRG_ORAM_F_registo_assocs\ILRG_ORAM_F_registo_assocs-media\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32D7E12B-66A0-47E3-81C7-AA64D8A9E2A8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47447B19-74AF-4CBA-876D-0056D782A10B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13740" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -19,14 +19,14 @@
     <sheet name="settings" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">choices!$A$1:$C$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">choices!$A$1:$C$28</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2469" uniqueCount="1112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2505" uniqueCount="1134">
   <si>
     <t>type</t>
   </si>
@@ -3365,15 +3365,88 @@
   </si>
   <si>
     <t>no</t>
+  </si>
+  <si>
+    <t>Bonefacio_Basílio</t>
+  </si>
+  <si>
+    <t>Bonefacio Basílio</t>
+  </si>
+  <si>
+    <t>Calisto_Agostinho_Inácio</t>
+  </si>
+  <si>
+    <t>Calisto Agostinho Inácio</t>
+  </si>
+  <si>
+    <t>Celestina_Armando</t>
+  </si>
+  <si>
+    <t>Celestina Armando</t>
+  </si>
+  <si>
+    <t>Celestina_Joaquim_Muanavava</t>
+  </si>
+  <si>
+    <t>Celestina Joaquim Muanavava</t>
+  </si>
+  <si>
+    <t>Constantino_Jerónimo</t>
+  </si>
+  <si>
+    <t>Constantino Jerónimo</t>
+  </si>
+  <si>
+    <t>Costa_António</t>
+  </si>
+  <si>
+    <t>Costa António</t>
+  </si>
+  <si>
+    <t>Damacio_Feliciano</t>
+  </si>
+  <si>
+    <t>Damacio Feliciano</t>
+  </si>
+  <si>
+    <t>Diosa_Alberto</t>
+  </si>
+  <si>
+    <t>Diosa Alberto</t>
+  </si>
+  <si>
+    <t>Olinda_Rui_Muquelesse</t>
+  </si>
+  <si>
+    <t>Olinda Rui Muquelesse</t>
+  </si>
+  <si>
+    <t>Xerife_Gabriel</t>
+  </si>
+  <si>
+    <t>Xerife Gabriel</t>
+  </si>
+  <si>
+    <t>Zito_Afonso</t>
+  </si>
+  <si>
+    <t>Zito Afonso</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -3598,397 +3671,405 @@
   </borders>
   <cellStyleXfs count="244">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="233" applyFont="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="235" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="235" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="243" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="243" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="243" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="243" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="243" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="243"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="233" applyFont="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="235" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="235" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="243" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="243" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="243" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="243" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="243" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="243"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="244">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -4573,7 +4654,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -5015,19 +5096,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B19" sqref="B19"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3:C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="19.625" style="22" customWidth="1"/>
+    <col min="2" max="2" width="27.25" style="22" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.125" style="5" customWidth="1"/>
     <col min="4" max="16384" width="10.875" style="5"/>
   </cols>
@@ -5050,295 +5131,432 @@
       <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="67" t="s">
         <v>1051</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="68" t="s">
         <v>1052</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="48" t="s">
+    <row r="4" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="56" t="s">
+      <c r="B4" s="67" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="50" t="s">
+      <c r="C4" s="68" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="48" t="s">
+    <row r="5" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="56" t="s">
+      <c r="B5" s="67" t="s">
         <v>1053</v>
       </c>
-      <c r="C5" s="50" t="s">
+      <c r="C5" s="68" t="s">
         <v>1054</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="48" t="s">
+    <row r="6" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="56" t="s">
+      <c r="B6" s="67" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C6" s="69" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="67" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C7" s="69" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="67" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C8" s="69" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="67" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C9" s="69" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="67" t="s">
         <v>1055</v>
       </c>
-      <c r="C6" s="50" t="s">
+      <c r="C10" s="68" t="s">
         <v>1056</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="48" t="s">
+    <row r="11" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="56" t="s">
+      <c r="B11" s="67" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C11" s="69" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="67" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C12" s="69" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="67" t="s">
         <v>1057</v>
       </c>
-      <c r="C7" s="50" t="s">
+      <c r="C13" s="68" t="s">
         <v>1058</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="48" t="s">
+    <row r="14" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="56" t="s">
+      <c r="B14" s="67" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C14" s="69" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="67" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C15" s="69" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="67" t="s">
         <v>1059</v>
       </c>
-      <c r="C8" s="50" t="s">
+      <c r="C16" s="68" t="s">
         <v>1060</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="48" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="56" t="s">
+      <c r="B17" s="67" t="s">
         <v>1061</v>
       </c>
-      <c r="C9" s="50" t="s">
+      <c r="C17" s="68" t="s">
         <v>1062</v>
       </c>
-      <c r="D9" s="13"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="48" t="s">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="56" t="s">
+      <c r="B18" s="67" t="s">
         <v>1063</v>
       </c>
-      <c r="C10" s="50" t="s">
+      <c r="C18" s="68" t="s">
         <v>1064</v>
       </c>
-      <c r="D10" s="13"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="48" t="s">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="56" t="s">
+      <c r="B19" s="67" t="s">
         <v>1065</v>
       </c>
-      <c r="C11" s="50" t="s">
+      <c r="C19" s="68" t="s">
         <v>1066</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="48" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="56" t="s">
+      <c r="B20" s="67" t="s">
         <v>1067</v>
       </c>
-      <c r="C12" s="50" t="s">
+      <c r="C20" s="68" t="s">
         <v>1068</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="48" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="56" t="s">
+      <c r="B21" s="67" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C21" s="69" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="67" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C22" s="69" t="s">
+        <v>1129</v>
+      </c>
+      <c r="D22" s="13"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="67" t="s">
         <v>1069</v>
       </c>
-      <c r="C13" s="50" t="s">
+      <c r="C23" s="68" t="s">
         <v>1070</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="48" t="s">
+      <c r="D23" s="13"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="56" t="s">
+      <c r="B24" s="67" t="s">
         <v>1071</v>
       </c>
-      <c r="C14" s="50" t="s">
+      <c r="C24" s="68" t="s">
         <v>1072</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="48" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="56" t="s">
+      <c r="B25" s="67" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C25" s="69" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="67" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C26" s="69" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" s="67" t="s">
         <v>1073</v>
       </c>
-      <c r="C15" s="48" t="s">
+      <c r="C27" s="66" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="6"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="48"/>
+      <c r="B28" s="56"/>
+      <c r="C28" s="48"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="6"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="65" t="s">
+      <c r="B30" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C30" s="13" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="65" t="s">
+      <c r="B31" s="65" t="s">
         <v>1111</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C31" s="13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="C19" s="3"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="30" t="s">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="4"/>
+      <c r="C32" s="3"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="31" t="s">
+      <c r="B33" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="32" t="s">
+      <c r="C33" s="32" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="30" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="31" t="s">
+      <c r="B34" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="32" t="s">
+      <c r="C34" s="32" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="30" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="31" t="s">
+      <c r="B35" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="32" t="s">
+      <c r="C35" s="32" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="30" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="B23" s="31" t="s">
+      <c r="B36" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="32" t="s">
+      <c r="C36" s="32" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="30" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="B24" s="31" t="s">
+      <c r="B37" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="32" t="s">
+      <c r="C37" s="32" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="30" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="31" t="s">
+      <c r="B38" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="C25" s="32" t="s">
+      <c r="C38" s="32" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="30" t="s">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="31" t="s">
+      <c r="B39" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="32" t="s">
+      <c r="C39" s="32" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="30" t="s">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="B27" s="31" t="s">
+      <c r="B40" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="32" t="s">
+      <c r="C40" s="32" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="30" t="s">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="B28" s="31" t="s">
+      <c r="B41" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="C28" s="32" t="s">
+      <c r="C41" s="32" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="30" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="B29" s="31" t="s">
+      <c r="B42" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="C29" s="32" t="s">
+      <c r="C42" s="32" t="s">
         <v>51</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C15" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A895:C923">
-    <sortCondition ref="C895:C923"/>
+  <autoFilter ref="A1:C28" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A908:C936">
+    <sortCondition ref="C908:C936"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
@@ -30636,7 +30854,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30670,7 +30888,7 @@
         <v>83</v>
       </c>
       <c r="C2" s="38">
-        <v>201904012</v>
+        <v>201904101</v>
       </c>
       <c r="D2" s="61" t="s">
         <v>1106</v>
